--- a/lab1_byot/examples/example7.xlsx
+++ b/lab1_byot/examples/example7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79E9D1-689E-C347-956A-687A37D2F6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17028FF-FC12-5742-B9BC-381FCA35AF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1040" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -84,33 +84,12 @@
     <t>ge-0/0/11</t>
   </si>
   <si>
-    <t>lab1_vsrx3_vr0</t>
-  </si>
-  <si>
-    <t>vsrx3</t>
-  </si>
-  <si>
-    <t>vr</t>
-  </si>
-  <si>
-    <t>192.168.122.125</t>
-  </si>
-  <si>
     <t>virbr0</t>
   </si>
   <si>
-    <t>lab1_vsrx3_vr1</t>
-  </si>
-  <si>
-    <t>192.168.122.126</t>
-  </si>
-  <si>
     <t>lab3_pod1_leaf_1</t>
   </si>
   <si>
-    <t>vex</t>
-  </si>
-  <si>
     <t>23.2R1.14</t>
   </si>
   <si>
@@ -132,72 +111,6 @@
     <t>192.168.122.113</t>
   </si>
   <si>
-    <t>lab3_pod1_leaf_4</t>
-  </si>
-  <si>
-    <t>192.168.122.114</t>
-  </si>
-  <si>
-    <t>lab3_pod1_spine_1</t>
-  </si>
-  <si>
-    <t>192.168.122.115</t>
-  </si>
-  <si>
-    <t>lab3_pod1_spine_2</t>
-  </si>
-  <si>
-    <t>192.168.122.116</t>
-  </si>
-  <si>
-    <t>lab3_pod2_leaf_1</t>
-  </si>
-  <si>
-    <t>192.168.122.117</t>
-  </si>
-  <si>
-    <t>lab3_pod2_leaf_2</t>
-  </si>
-  <si>
-    <t>192.168.122.118</t>
-  </si>
-  <si>
-    <t>lab3_pod2_leaf_3</t>
-  </si>
-  <si>
-    <t>192.168.122.119</t>
-  </si>
-  <si>
-    <t>lab3_pod2_leaf_4</t>
-  </si>
-  <si>
-    <t>192.168.122.120</t>
-  </si>
-  <si>
-    <t>lab3_pod2_spine_1</t>
-  </si>
-  <si>
-    <t>192.168.122.121</t>
-  </si>
-  <si>
-    <t>lab3_pod2_spine_2</t>
-  </si>
-  <si>
-    <t>192.168.122.122</t>
-  </si>
-  <si>
-    <t>lab3_superspine_1</t>
-  </si>
-  <si>
-    <t>192.168.122.123</t>
-  </si>
-  <si>
-    <t>lab3_superspine_2</t>
-  </si>
-  <si>
-    <t>192.168.122.124</t>
-  </si>
-  <si>
     <t>channelized</t>
   </si>
   <si>
@@ -237,18 +150,6 @@
     <t>et-0/0/11</t>
   </si>
   <si>
-    <t>lab1_apstra_server</t>
-  </si>
-  <si>
-    <t>apstra_server</t>
-  </si>
-  <si>
-    <t>4.1.2-269</t>
-  </si>
-  <si>
-    <t>192.168.122.110</t>
-  </si>
-  <si>
     <t>bond</t>
   </si>
   <si>
@@ -279,36 +180,6 @@
     <t>S-30</t>
   </si>
   <si>
-    <t>S-31</t>
-  </si>
-  <si>
-    <t>S-32</t>
-  </si>
-  <si>
-    <t>S-33</t>
-  </si>
-  <si>
-    <t>S-35</t>
-  </si>
-  <si>
-    <t>S-34</t>
-  </si>
-  <si>
-    <t>S-36</t>
-  </si>
-  <si>
-    <t>S-37</t>
-  </si>
-  <si>
-    <t>S-38</t>
-  </si>
-  <si>
-    <t>S-39</t>
-  </si>
-  <si>
-    <t>S-40</t>
-  </si>
-  <si>
     <t>S-1</t>
   </si>
   <si>
@@ -325,63 +196,6 @@
   </si>
   <si>
     <t>S-6</t>
-  </si>
-  <si>
-    <t>S-7</t>
-  </si>
-  <si>
-    <t>S-8</t>
-  </si>
-  <si>
-    <t>S-17</t>
-  </si>
-  <si>
-    <t>S-18</t>
-  </si>
-  <si>
-    <t>S-19</t>
-  </si>
-  <si>
-    <t>S-20</t>
-  </si>
-  <si>
-    <t>S-9</t>
-  </si>
-  <si>
-    <t>S-10</t>
-  </si>
-  <si>
-    <t>S-11</t>
-  </si>
-  <si>
-    <t>S-12</t>
-  </si>
-  <si>
-    <t>S-13</t>
-  </si>
-  <si>
-    <t>S-14</t>
-  </si>
-  <si>
-    <t>S-15</t>
-  </si>
-  <si>
-    <t>S-16</t>
-  </si>
-  <si>
-    <t>S-21</t>
-  </si>
-  <si>
-    <t>S-22</t>
-  </si>
-  <si>
-    <t>S-23</t>
-  </si>
-  <si>
-    <t>S-24</t>
-  </si>
-  <si>
-    <t>23.2R1.13</t>
   </si>
   <si>
     <t>vrouter</t>
@@ -861,7 +675,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -936,9 +750,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2" s="15"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -959,60 +771,28 @@
       <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1033,51 +813,21 @@
       <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>93</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1187,7 +937,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1262,12 +1012,12 @@
         <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1291,34 +1041,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1332,7 +1082,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1356,34 +1106,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1397,7 +1147,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1421,34 +1171,34 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1461,9 +1211,7 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1482,39 +1230,17 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1526,9 +1252,7 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="15"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1547,45 +1271,19 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1595,9 +1293,7 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1616,45 +1312,19 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1664,9 +1334,7 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="A14" s="15"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1685,39 +1353,17 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1729,9 +1375,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1750,39 +1394,17 @@
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1794,9 +1416,7 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="A18" s="15"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1815,39 +1435,17 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -1859,9 +1457,7 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1880,39 +1476,17 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1924,9 +1498,7 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="15"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -1945,45 +1517,19 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -1993,9 +1539,7 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -2014,45 +1558,19 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2062,9 +1580,7 @@
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -2083,39 +1599,17 @@
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2127,9 +1621,7 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2148,39 +1640,17 @@
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2193,12 +1663,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -2207,6 +1671,12 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2218,7 +1688,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2288,9 +1758,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="A2" s="15"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2309,39 +1777,17 @@
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2350,9 +1796,7 @@
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -2371,39 +1815,17 @@
       <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2412,9 +1834,7 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="A6" s="15"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2433,39 +1853,17 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2474,9 +1872,7 @@
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2495,39 +1891,17 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2536,9 +1910,7 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="15"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2557,54 +1929,26 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2623,54 +1967,26 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>41</v>
-      </c>
+      <c r="A14" s="15"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2689,39 +2005,17 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -2730,9 +2024,7 @@
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2751,39 +2043,17 @@
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2792,9 +2062,7 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="A18" s="15"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2813,39 +2081,17 @@
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2854,9 +2100,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2875,39 +2119,17 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2916,9 +2138,7 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="15"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -2937,54 +2157,26 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -3003,54 +2195,26 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3069,39 +2233,17 @@
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3110,9 +2252,7 @@
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -3131,39 +2271,17 @@
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3223,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -3241,40 +2359,40 @@
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -3983,13 +3101,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3999,6 +3110,13 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4009,7 +3127,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4043,9 +3161,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="A2" s="15"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -4053,24 +3169,12 @@
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -4165,16 +3269,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/lab1_byot/examples/example7.xlsx
+++ b/lab1_byot/examples/example7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17028FF-FC12-5742-B9BC-381FCA35AF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41406AD-CF6B-ED43-9604-4116735D8238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,13 +937,13 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A10" sqref="A10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
@@ -1663,6 +1663,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -1671,12 +1677,6 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3101,6 +3101,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3110,13 +3117,6 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lab1_byot/examples/example7.xlsx
+++ b/lab1_byot/examples/example7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gilbertor/PycharmProjects/vjunos_kvm/lab1_byot/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDCE35F-1B6B-A843-83AE-6275029C3B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42630E28-23B1-A94B-9B33-16A9A177F5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35380" yWindow="3640" windowWidth="32880" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35380" yWindow="1840" windowWidth="32880" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRX" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>vmx-vcp</t>
   </si>
   <si>
-    <t>22.4R2.8</t>
-  </si>
-  <si>
     <t>vmx-vfp</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>lab1_vfp0_r4</t>
+  </si>
+  <si>
+    <t>23.2R2-S1.3</t>
   </si>
 </sst>
 </file>
@@ -405,9 +405,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -445,7 +445,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -551,7 +551,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -989,15 +989,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CF0E90-D97A-EC44-A339-6A36611C0CEE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:Q24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -1090,7 +1090,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>41</v>
@@ -1120,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1179,13 +1179,13 @@
         <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>43</v>
@@ -1209,16 +1209,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -1266,13 +1266,13 @@
         <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>44</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1353,13 +1353,13 @@
         <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>45</v>
@@ -1383,16 +1383,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2433,12 +2433,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A14:Q14"/>
@@ -2447,6 +2441,12 @@
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3793,13 +3793,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A12:T12"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A16:T16"/>
     <mergeCell ref="A10:T10"/>
@@ -3809,6 +3802,13 @@
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="A26:T26"/>
     <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
